--- a/Ventas-PROMELSA.xlsx
+++ b/Ventas-PROMELSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtapia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842398A5-50DE-4752-B39D-6FF750102115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25707380-7B39-457B-95C6-27878BF4DD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{130D042D-78A9-4F22-B783-9F6F7457F468}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Calc!$A$1:$L$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data1!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data1!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Meta</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>def</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
   </si>
 </sst>
 </file>
@@ -4734,30 +4737,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE712AD-AD7D-4129-8E38-8C3F074D6EB8}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="4"/>
+    <col min="6" max="16384" width="5.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -4768,14 +4769,8 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2025</v>
       </c>
@@ -4791,13 +4786,8 @@
       <c r="E2" s="2">
         <v>23207.79</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7">
-        <f>+E2-D2</f>
-        <v>-35072.93</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2025</v>
       </c>
@@ -4813,13 +4803,8 @@
       <c r="E3" s="2">
         <v>24166.43</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7">
-        <f>+(E3-D3)+(G2)</f>
-        <v>-65632.850000000006</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2025</v>
       </c>
@@ -4835,13 +4820,8 @@
       <c r="E4" s="2">
         <v>28994.18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7">
-        <f>+(E4-D4)+(G3)</f>
-        <v>-99034.07</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2025</v>
       </c>
@@ -4857,13 +4837,8 @@
       <c r="E5" s="2">
         <v>31253.58</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7">
-        <f>+(E5-D5)+(G4)</f>
-        <v>-139159.77000000002</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2025</v>
       </c>
@@ -4879,13 +4854,8 @@
       <c r="E6" s="2">
         <v>29915.26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7">
-        <f>+(E6-D6)+(G5)</f>
-        <v>-183300.56000000003</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2025</v>
       </c>
@@ -4901,13 +4871,8 @@
       <c r="E7" s="2">
         <v>50154.85</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7">
-        <f>+(E7-D7)+(G6)</f>
-        <v>-249427.87000000002</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>2025</v>
       </c>
@@ -4921,15 +4886,8 @@
         <v>105297.59</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="12">
-        <v>30000</v>
-      </c>
-      <c r="G8" s="13">
-        <f>+(E8-D8)+(G7)</f>
-        <v>-354725.46</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2025</v>
       </c>
@@ -4943,13 +4901,8 @@
         <v>108695.35</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7">
-        <f>+(E9-D9)+(G8)</f>
-        <v>-463420.81000000006</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -4963,13 +4916,8 @@
         <v>89935.84</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7">
-        <f>+(E10-D10)+(G9)</f>
-        <v>-553356.65</v>
-      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2025</v>
       </c>
@@ -4983,13 +4931,8 @@
         <v>88207.51</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7">
-        <f>+(E11-D11)+(G10)</f>
-        <v>-641564.16000000003</v>
-      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2025</v>
       </c>
@@ -5003,13 +4946,8 @@
         <v>79620.03</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7">
-        <f>+(E12-D12)+(G11)</f>
-        <v>-721184.19000000006</v>
-      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2025</v>
       </c>
@@ -5023,14 +4961,9 @@
         <v>75401.55</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7">
-        <f>+(E13-D13)+(G12)</f>
-        <v>-796585.74000000011</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13" xr:uid="{EF5749F7-5D93-41E5-B17D-2FA7500C0C6C}"/>
+  <autoFilter ref="A1:E13" xr:uid="{EF5749F7-5D93-41E5-B17D-2FA7500C0C6C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
